--- a/Programs/LogUpdater/infolist/cases.xlsx
+++ b/Programs/LogUpdater/infolist/cases.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,26 +37,6 @@
   </si>
   <si>
     <t>project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>make friends with employees of company A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>me</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,17 +387,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="32.25" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -428,7 +408,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -440,29 +420,6 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>222</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C71" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
